--- a/documents/Elaborazione dati sondaggio.xlsx
+++ b/documents/Elaborazione dati sondaggio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loris\Desktop\GIP_files\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15C78F4D-A641-413D-BE7A-E666B592BC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7411D2C-5FA9-4C16-972D-53C1B12D35C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3201" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3211" uniqueCount="54">
   <si>
     <t>Informazioni cronologiche</t>
   </si>
@@ -195,6 +195,18 @@
   <si>
     <t>Altri</t>
   </si>
+  <si>
+    <t>Danni articoli</t>
+  </si>
+  <si>
+    <t>Fisico</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
 </sst>
 </file>
 
@@ -256,24 +268,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2188,9 +2200,7 @@
                 <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="19050">
-                <a:solidFill>
-                  <a:srgbClr val="00B050"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -3377,6 +3387,1182 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Risposte del modulo 1'!$AN$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Online</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Risposte del modulo 1'!$AM$47:$AM$50</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>No, mai</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sì, una volta</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sì, qualche volta</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sì, diverse volte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Risposte del modulo 1'!$AN$47:$AN$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6409-4CAE-A054-DB09ED35898E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Risposte del modulo 1'!$AO$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fisico</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Risposte del modulo 1'!$AM$47:$AM$50</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>No, mai</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sì, una volta</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sì, qualche volta</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sì, diverse volte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Risposte del modulo 1'!$AO$47:$AO$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6409-4CAE-A054-DB09ED35898E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1911525711"/>
+        <c:axId val="1911526127"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1911525711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1911526127"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1911526127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1911525711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Hai acquistato prodotti danneggiati o che non rispettano la descrizione?</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Risposte del modulo 1'!$AM$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sì, diverse volte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-1D39-412B-BF4C-F7159F93B249}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Risposte del modulo 1'!$AQ$46:$AR$46</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Online</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fisico</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Risposte del modulo 1'!$AQ$50:$AR$50</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8.1218274111675121E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.015228426395939E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1D39-412B-BF4C-F7159F93B249}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Risposte del modulo 1'!$AM$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sì, qualche volta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Risposte del modulo 1'!$AQ$46:$AR$46</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Online</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fisico</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Risposte del modulo 1'!$AQ$49:$AR$49</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.41116751269035534</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39086294416243655</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1D39-412B-BF4C-F7159F93B249}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Risposte del modulo 1'!$AM$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sì, una volta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Risposte del modulo 1'!$AQ$46:$AR$46</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Online</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fisico</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Risposte del modulo 1'!$AQ$48:$AR$48</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.2233502538071066</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21319796954314721</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1D39-412B-BF4C-F7159F93B249}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Risposte del modulo 1'!$AM$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No, mai</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Risposte del modulo 1'!$AQ$46:$AR$46</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Online</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fisico</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Risposte del modulo 1'!$AQ$47:$AR$47</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.28426395939086296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38578680203045684</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1D39-412B-BF4C-F7159F93B249}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1319117472"/>
+        <c:axId val="1319117888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1319117472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1319117888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1319117888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1319117472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3617,6 +4803,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -6163,6 +7429,1014 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6889,6 +9163,78 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>370113</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>16329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>587827</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>146958</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29330CD3-C235-5C54-01F1-4BCC9F7FAE85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>555171</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>772886</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F693DA7A-31EA-71D4-F914-18F6C17C7B7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7095,9 +9441,9 @@
   </sheetPr>
   <dimension ref="A1:BT216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="38" zoomScaleNormal="49" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AT70" sqref="AT70"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AZ65" sqref="AZ65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7108,41 +9454,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="5" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
     </row>
-    <row r="2" spans="1:72" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:72" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7167,7 +9513,7 @@
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="M2" s="1"/>
@@ -7360,39 +9706,39 @@
         <f t="shared" ref="AH4:AH67" si="0">IF(AF4="Sì",AG4,"")</f>
         <v>2-5% del prezzo del prodotto</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AN4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3"/>
-      <c r="AW4" s="3" t="s">
+      <c r="AO4" s="9"/>
+      <c r="AP4" s="9"/>
+      <c r="AQ4" s="9"/>
+      <c r="AR4" s="9"/>
+      <c r="AW4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AX4" s="3"/>
-      <c r="AY4" s="3"/>
-      <c r="AZ4" s="3"/>
-      <c r="BA4" s="3"/>
-      <c r="BB4" s="3"/>
-      <c r="BC4" s="3"/>
-      <c r="BD4" s="3"/>
-      <c r="BE4" s="3"/>
-      <c r="BF4" s="3"/>
-      <c r="BG4" s="3"/>
-      <c r="BH4" s="3"/>
-      <c r="BI4" s="3"/>
-      <c r="BJ4" s="3"/>
-      <c r="BK4" s="3"/>
-      <c r="BL4" s="3"/>
-      <c r="BM4" s="3"/>
-      <c r="BN4" s="3"/>
-      <c r="BO4" s="3"/>
-      <c r="BP4" s="3"/>
-      <c r="BQ4" s="3"/>
-      <c r="BR4" s="3"/>
-      <c r="BS4" s="3"/>
-      <c r="BT4" s="3"/>
+      <c r="AX4" s="9"/>
+      <c r="AY4" s="9"/>
+      <c r="AZ4" s="9"/>
+      <c r="BA4" s="9"/>
+      <c r="BB4" s="9"/>
+      <c r="BC4" s="9"/>
+      <c r="BD4" s="9"/>
+      <c r="BE4" s="9"/>
+      <c r="BF4" s="9"/>
+      <c r="BG4" s="9"/>
+      <c r="BH4" s="9"/>
+      <c r="BI4" s="9"/>
+      <c r="BJ4" s="9"/>
+      <c r="BK4" s="9"/>
+      <c r="BL4" s="9"/>
+      <c r="BM4" s="9"/>
+      <c r="BN4" s="9"/>
+      <c r="BO4" s="9"/>
+      <c r="BP4" s="9"/>
+      <c r="BQ4" s="9"/>
+      <c r="BR4" s="9"/>
+      <c r="BS4" s="9"/>
+      <c r="BT4" s="9"/>
     </row>
     <row r="5" spans="1:72" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -7462,19 +9808,19 @@
       <c r="AN5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AO5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP5" s="8" t="s">
+      <c r="AO5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AQ5" s="9" t="s">
+      <c r="AQ5" s="6" t="s">
         <v>22</v>
       </c>
       <c r="AR5" t="s">
         <v>37</v>
       </c>
-      <c r="AT5" s="8" t="s">
+      <c r="AT5" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -7550,43 +9896,42 @@
         <f>COUNTIF($Z:$Z,AN5)</f>
         <v>3</v>
       </c>
-      <c r="AO6" s="11">
+      <c r="AO6">
         <f t="shared" ref="AO6:AR6" si="1">COUNTIF($Z:$Z,AO5)</f>
         <v>155</v>
       </c>
-      <c r="AP6" s="11">
+      <c r="AP6">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="AQ6" s="11">
+      <c r="AQ6">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="AR6" s="11">
+      <c r="AR6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AS6" s="11"/>
-      <c r="AT6" s="11">
+      <c r="AT6">
         <f>SUM(AN6:AR6)</f>
         <v>198</v>
       </c>
       <c r="BC6" t="s">
         <v>24</v>
       </c>
-      <c r="BD6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="BE6" s="11" t="s">
+      <c r="BD6" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE6" t="s">
         <v>27</v>
       </c>
-      <c r="BF6" s="12" t="s">
+      <c r="BF6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="BG6" t="s">
         <v>49</v>
       </c>
-      <c r="BM6" s="12" t="s">
+      <c r="BM6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="BN6" s="1" t="s">
@@ -7665,24 +10010,23 @@
         <f>COUNTIFS($Z:$Z,AN5,$AF:$AF,"Sì")</f>
         <v>2</v>
       </c>
-      <c r="AO7" s="11">
+      <c r="AO7">
         <f t="shared" ref="AO7:AR7" si="2">COUNTIFS($Z:$Z,AO5,$AF:$AF,"Sì")</f>
         <v>117</v>
       </c>
-      <c r="AP7" s="11">
+      <c r="AP7">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="AQ7" s="11">
+      <c r="AQ7">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="AR7" s="11">
+      <c r="AR7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AS7" s="11"/>
-      <c r="AT7" s="11">
+      <c r="AT7">
         <f>SUM(AN7:AR7)</f>
         <v>140</v>
       </c>
@@ -7791,27 +10135,27 @@
       <c r="AM8" t="s">
         <v>45</v>
       </c>
-      <c r="AN8" s="7">
+      <c r="AN8" s="4">
         <f t="shared" ref="AN8:AR8" si="3">AN7/AN6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AO8" s="10">
+      <c r="AO8" s="7">
         <f t="shared" si="3"/>
         <v>0.75483870967741939</v>
       </c>
-      <c r="AP8" s="10">
+      <c r="AP8" s="7">
         <f t="shared" si="3"/>
         <v>0.51724137931034486</v>
       </c>
-      <c r="AQ8" s="10">
+      <c r="AQ8" s="7">
         <f t="shared" si="3"/>
         <v>0.55555555555555558</v>
       </c>
-      <c r="AR8" s="7">
+      <c r="AR8" s="4">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="AT8" s="10">
+      <c r="AT8" s="7">
         <f>AT7/AT6</f>
         <v>0.70707070707070707</v>
       </c>
@@ -7881,12 +10225,6 @@
         <f t="shared" si="0"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
-      <c r="AO9" s="11"/>
-      <c r="AP9" s="11"/>
-      <c r="AQ9" s="11"/>
-      <c r="AR9" s="11"/>
-      <c r="AS9" s="11"/>
-      <c r="AT9" s="11"/>
     </row>
     <row r="10" spans="1:72" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -7960,24 +10298,23 @@
         <f>COUNTIFS($Z:$Z,AN$5,$AH:$AH,$AM10)</f>
         <v>1</v>
       </c>
-      <c r="AO10" s="11">
+      <c r="AO10">
         <f t="shared" ref="AO10:AR13" si="4">COUNTIFS($Z:$Z,AO$5,$AH:$AH,$AM10)</f>
         <v>51</v>
       </c>
-      <c r="AP10" s="11">
+      <c r="AP10">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="AQ10" s="11">
+      <c r="AQ10">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AR10" s="11">
+      <c r="AR10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AS10" s="11"/>
-      <c r="AT10" s="11">
+      <c r="AT10">
         <f>SUM(AN10:AR10)</f>
         <v>65</v>
       </c>
@@ -8054,25 +10391,24 @@
         <f t="shared" ref="AN11:AN13" si="5">COUNTIFS($Z:$Z,AN$5,$AH:$AH,$AM11)</f>
         <v>1</v>
       </c>
-      <c r="AO11" s="11">
+      <c r="AO11">
         <f>COUNTIFS($Z:$Z,AO$5,$AH:$AH,$AM11)</f>
         <v>56</v>
       </c>
-      <c r="AP11" s="11">
+      <c r="AP11">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AQ11" s="11">
+      <c r="AQ11">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="AR11" s="11">
+      <c r="AR11">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AS11" s="11"/>
-      <c r="AT11" s="11">
-        <f t="shared" ref="AT11:AT14" si="6">SUM(AN11:AR11)</f>
+      <c r="AT11">
+        <f t="shared" ref="AT11:AT13" si="6">SUM(AN11:AR11)</f>
         <v>65</v>
       </c>
     </row>
@@ -8148,24 +10484,23 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AO12" s="11">
+      <c r="AO12">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AP12" s="11">
+      <c r="AP12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AQ12" s="11">
+      <c r="AQ12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AR12" s="11">
+      <c r="AR12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AS12" s="11"/>
-      <c r="AT12" s="11">
+      <c r="AT12">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
@@ -8242,24 +10577,23 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AO13" s="11">
+      <c r="AO13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AP13" s="11">
+      <c r="AP13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AQ13" s="11">
+      <c r="AQ13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AR13" s="11">
+      <c r="AR13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AS13" s="11"/>
-      <c r="AT13" s="11">
+      <c r="AT13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -8329,12 +10663,6 @@
         <f t="shared" si="0"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
-      <c r="AO14" s="11"/>
-      <c r="AP14" s="11"/>
-      <c r="AQ14" s="11"/>
-      <c r="AR14" s="11"/>
-      <c r="AS14" s="11"/>
-      <c r="AT14" s="11"/>
     </row>
     <row r="15" spans="1:72" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -8408,24 +10736,23 @@
         <f>SUM(AN10:AN13)</f>
         <v>2</v>
       </c>
-      <c r="AO15" s="11">
+      <c r="AO15">
         <f>SUM(AO10:AO13)</f>
         <v>116</v>
       </c>
-      <c r="AP15" s="11">
+      <c r="AP15">
         <f>SUM(AP10:AP13)</f>
         <v>15</v>
       </c>
-      <c r="AQ15" s="11">
+      <c r="AQ15">
         <f>SUM(AQ10:AQ13)</f>
         <v>5</v>
       </c>
-      <c r="AR15" s="11">
+      <c r="AR15">
         <f>SUM(AR10:AR13)</f>
         <v>1</v>
       </c>
-      <c r="AS15" s="11"/>
-      <c r="AT15" s="11">
+      <c r="AT15">
         <f>SUM(AN15:AR15)</f>
         <v>139</v>
       </c>
@@ -8483,12 +10810,6 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AO16" s="11"/>
-      <c r="AP16" s="11"/>
-      <c r="AQ16" s="11"/>
-      <c r="AR16" s="11"/>
-      <c r="AS16" s="11"/>
-      <c r="AT16" s="11"/>
     </row>
     <row r="17" spans="1:46" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -8552,27 +10873,27 @@
       <c r="AM17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AN17" s="7">
+      <c r="AN17" s="4">
         <f>AN10/AN$15</f>
         <v>0.5</v>
       </c>
-      <c r="AO17" s="10">
+      <c r="AO17" s="7">
         <f t="shared" ref="AO17:AT17" si="7">AO10/AO$15</f>
         <v>0.43965517241379309</v>
       </c>
-      <c r="AP17" s="10">
+      <c r="AP17" s="7">
         <f t="shared" si="7"/>
         <v>0.8</v>
       </c>
-      <c r="AQ17" s="10">
+      <c r="AQ17" s="7">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
-      <c r="AR17" s="7">
+      <c r="AR17" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AT17" s="10">
+      <c r="AT17" s="7">
         <f t="shared" si="7"/>
         <v>0.46762589928057552</v>
       </c>
@@ -8633,27 +10954,27 @@
       <c r="AM18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AN18" s="7">
+      <c r="AN18" s="4">
         <f t="shared" ref="AN18:AR18" si="8">AN11/AN$15</f>
         <v>0.5</v>
       </c>
-      <c r="AO18" s="10">
+      <c r="AO18" s="7">
         <f t="shared" si="8"/>
         <v>0.48275862068965519</v>
       </c>
-      <c r="AP18" s="10">
+      <c r="AP18" s="7">
         <f t="shared" si="8"/>
         <v>0.2</v>
       </c>
-      <c r="AQ18" s="10">
+      <c r="AQ18" s="7">
         <f t="shared" si="8"/>
         <v>0.8</v>
       </c>
-      <c r="AR18" s="7">
+      <c r="AR18" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AT18" s="10">
+      <c r="AT18" s="7">
         <f t="shared" ref="AT18" si="9">AT11/AT$15</f>
         <v>0.46762589928057552</v>
       </c>
@@ -8714,27 +11035,27 @@
       <c r="AM19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AN19" s="7">
+      <c r="AN19" s="4">
         <f t="shared" ref="AN19:AR19" si="10">AN12/AN$15</f>
         <v>0</v>
       </c>
-      <c r="AO19" s="10">
+      <c r="AO19" s="7">
         <f t="shared" si="10"/>
         <v>7.7586206896551727E-2</v>
       </c>
-      <c r="AP19" s="10">
+      <c r="AP19" s="7">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AQ19" s="10">
+      <c r="AQ19" s="7">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AR19" s="7">
+      <c r="AR19" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AT19" s="10">
+      <c r="AT19" s="7">
         <f t="shared" ref="AT19" si="11">AT12/AT$15</f>
         <v>6.4748201438848921E-2</v>
       </c>
@@ -8801,27 +11122,27 @@
       <c r="AM20" t="s">
         <v>34</v>
       </c>
-      <c r="AN20" s="7">
+      <c r="AN20" s="4">
         <f t="shared" ref="AN20:AR20" si="12">AN13/AN$15</f>
         <v>0</v>
       </c>
-      <c r="AO20" s="10">
+      <c r="AO20" s="7">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AP20" s="10">
+      <c r="AP20" s="7">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AQ20" s="10">
+      <c r="AQ20" s="7">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AR20" s="7">
+      <c r="AR20" s="4">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AT20" s="10">
+      <c r="AT20" s="7">
         <f t="shared" ref="AT20" si="13">AT13/AT$15</f>
         <v>0</v>
       </c>
@@ -8939,13 +11260,13 @@
         <f t="shared" si="0"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
-      <c r="AN22" s="3" t="s">
+      <c r="AN22" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AO22" s="3"/>
-      <c r="AP22" s="3"/>
-      <c r="AQ22" s="3"/>
-      <c r="AR22" s="3"/>
+      <c r="AO22" s="9"/>
+      <c r="AP22" s="9"/>
+      <c r="AQ22" s="9"/>
+      <c r="AR22" s="9"/>
     </row>
     <row r="23" spans="1:46" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -9084,11 +11405,11 @@
       <c r="AM24" t="s">
         <v>43</v>
       </c>
-      <c r="AN24" s="8">
+      <c r="AN24" s="5">
         <f>COUNTIF($AA:$AA,AN23)</f>
         <v>131</v>
       </c>
-      <c r="AO24" s="8">
+      <c r="AO24" s="5">
         <f t="shared" ref="AO24:AQ24" si="14">COUNTIF($AA:$AA,AO23)</f>
         <v>64</v>
       </c>
@@ -9100,7 +11421,7 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="AT24" s="8">
+      <c r="AT24" s="5">
         <f>SUM(AN24:AQ24)</f>
         <v>198</v>
       </c>
@@ -9167,11 +11488,11 @@
       <c r="AM25" t="s">
         <v>7</v>
       </c>
-      <c r="AN25" s="8">
+      <c r="AN25" s="5">
         <f>COUNTIFS($AA:$AA,AN23,$AF:$AF,"Sì")</f>
         <v>100</v>
       </c>
-      <c r="AO25" s="8">
+      <c r="AO25" s="5">
         <f t="shared" ref="AO25:AQ25" si="15">COUNTIFS($AA:$AA,AO23,$AF:$AF,"Sì")</f>
         <v>39</v>
       </c>
@@ -9183,7 +11504,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AT25" s="8">
+      <c r="AT25" s="5">
         <f>SUM(AN25:AQ25)</f>
         <v>140</v>
       </c>
@@ -9250,23 +11571,23 @@
       <c r="AM26" t="s">
         <v>45</v>
       </c>
-      <c r="AN26" s="10">
+      <c r="AN26" s="7">
         <f>AN25/AN24</f>
         <v>0.76335877862595425</v>
       </c>
-      <c r="AO26" s="10">
+      <c r="AO26" s="7">
         <f t="shared" ref="AO26:AQ26" si="16">AO25/AO24</f>
         <v>0.609375</v>
       </c>
-      <c r="AP26" s="7">
+      <c r="AP26" s="4">
         <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
-      <c r="AQ26" s="7">
+      <c r="AQ26" s="4">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AT26" s="10">
+      <c r="AT26" s="7">
         <f t="shared" ref="AT26" si="17">AT25/AT24</f>
         <v>0.70707070707070707</v>
       </c>
@@ -9330,10 +11651,6 @@
         <f t="shared" si="0"/>
         <v>5-10% del prezzo del prodotto</v>
       </c>
-      <c r="AN27" s="11"/>
-      <c r="AO27" s="11"/>
-      <c r="AP27" s="11"/>
-      <c r="AQ27" s="11"/>
     </row>
     <row r="28" spans="1:46" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
@@ -9397,20 +11714,20 @@
       <c r="AM28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AN28" s="11">
-        <f>COUNTIFS($AA:$AA,AN$23,$AH:$AH,$AM28)</f>
+      <c r="AN28">
+        <f t="shared" ref="AN28:AQ31" si="18">COUNTIFS($AA:$AA,AN$23,$AH:$AH,$AM28)</f>
         <v>52</v>
       </c>
-      <c r="AO28" s="11">
-        <f>COUNTIFS($AA:$AA,AO$23,$AH:$AH,$AM28)</f>
-        <v>13</v>
-      </c>
-      <c r="AP28" s="11">
-        <f>COUNTIFS($AA:$AA,AP$23,$AH:$AH,$AM28)</f>
+      <c r="AO28">
+        <f t="shared" si="18"/>
+        <v>13</v>
+      </c>
+      <c r="AP28">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AQ28" s="11">
-        <f>COUNTIFS($AA:$AA,AQ$23,$AH:$AH,$AM28)</f>
+      <c r="AQ28">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AT28">
@@ -9480,24 +11797,24 @@
       <c r="AM29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AN29" s="11">
-        <f>COUNTIFS($AA:$AA,AN$23,$AH:$AH,$AM29)</f>
+      <c r="AN29">
+        <f t="shared" si="18"/>
         <v>43</v>
       </c>
-      <c r="AO29" s="11">
-        <f>COUNTIFS($AA:$AA,AO$23,$AH:$AH,$AM29)</f>
-        <v>21</v>
-      </c>
-      <c r="AP29" s="11">
-        <f>COUNTIFS($AA:$AA,AP$23,$AH:$AH,$AM29)</f>
+      <c r="AO29">
+        <f t="shared" si="18"/>
+        <v>21</v>
+      </c>
+      <c r="AP29">
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="AQ29" s="11">
-        <f>COUNTIFS($AA:$AA,AQ$23,$AH:$AH,$AM29)</f>
+      <c r="AQ29">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AT29">
-        <f t="shared" ref="AT29:AT32" si="18">SUM(AN29:AQ29)</f>
+        <f t="shared" ref="AT29:AT31" si="19">SUM(AN29:AQ29)</f>
         <v>65</v>
       </c>
     </row>
@@ -9563,24 +11880,24 @@
       <c r="AM30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AN30" s="11">
-        <f>COUNTIFS($AA:$AA,AN$23,$AH:$AH,$AM30)</f>
+      <c r="AN30">
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
-      <c r="AO30" s="11">
-        <f>COUNTIFS($AA:$AA,AO$23,$AH:$AH,$AM30)</f>
+      <c r="AO30">
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
-      <c r="AP30" s="11">
-        <f>COUNTIFS($AA:$AA,AP$23,$AH:$AH,$AM30)</f>
+      <c r="AP30">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AQ30" s="11">
-        <f>COUNTIFS($AA:$AA,AQ$23,$AH:$AH,$AM30)</f>
+      <c r="AQ30">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AT30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
     </row>
@@ -9646,24 +11963,24 @@
       <c r="AM31" t="s">
         <v>34</v>
       </c>
-      <c r="AN31" s="11">
-        <f>COUNTIFS($AA:$AA,AN$23,$AH:$AH,$AM31)</f>
+      <c r="AN31">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AO31" s="11">
-        <f>COUNTIFS($AA:$AA,AO$23,$AH:$AH,$AM31)</f>
+      <c r="AO31">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AP31" s="11">
-        <f>COUNTIFS($AA:$AA,AP$23,$AH:$AH,$AM31)</f>
+      <c r="AP31">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AQ31" s="11">
-        <f>COUNTIFS($AA:$AA,AQ$23,$AH:$AH,$AM31)</f>
+      <c r="AQ31">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AT31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -9723,10 +12040,6 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AN32" s="11"/>
-      <c r="AO32" s="11"/>
-      <c r="AP32" s="11"/>
-      <c r="AQ32" s="11"/>
     </row>
     <row r="33" spans="1:53" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
@@ -9787,19 +12100,19 @@
       <c r="AM33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AN33" s="11">
+      <c r="AN33">
         <f>SUM(AN28:AN31)</f>
         <v>100</v>
       </c>
-      <c r="AO33" s="11">
+      <c r="AO33">
         <f>SUM(AO28:AO31)</f>
         <v>38</v>
       </c>
-      <c r="AP33" s="11">
+      <c r="AP33">
         <f>SUM(AP28:AP31)</f>
         <v>1</v>
       </c>
-      <c r="AQ33" s="11">
+      <c r="AQ33">
         <f>SUM(AQ28:AQ31)</f>
         <v>0</v>
       </c>
@@ -9867,17 +12180,13 @@
         <f t="shared" si="0"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
-      <c r="AN34" s="11"/>
-      <c r="AO34" s="11"/>
-      <c r="AP34" s="11"/>
-      <c r="AQ34" s="11"/>
-      <c r="AW34" s="3" t="s">
+      <c r="AW34" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AX34" s="3"/>
-      <c r="AY34" s="3"/>
-      <c r="AZ34" s="3"/>
-      <c r="BA34" s="3"/>
+      <c r="AX34" s="9"/>
+      <c r="AY34" s="9"/>
+      <c r="AZ34" s="9"/>
+      <c r="BA34" s="9"/>
     </row>
     <row r="35" spans="1:53" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -9941,25 +12250,25 @@
       <c r="AM35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AN35" s="10">
+      <c r="AN35" s="7">
         <f>AN28/AN$33</f>
         <v>0.52</v>
       </c>
-      <c r="AO35" s="10">
-        <f t="shared" ref="AO35:AQ35" si="19">AO28/AO$33</f>
+      <c r="AO35" s="7">
+        <f t="shared" ref="AO35:AP35" si="20">AO28/AO$33</f>
         <v>0.34210526315789475</v>
       </c>
-      <c r="AP35" s="7">
-        <f t="shared" si="19"/>
+      <c r="AP35" s="4">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AQ35" s="7" t="e">
+      <c r="AQ35" s="4" t="e">
         <f>AQ28/AQ$33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR35" s="7"/>
-      <c r="AT35" s="10">
-        <f t="shared" ref="AT35:AT38" si="20">AT28/AT$33</f>
+      <c r="AR35" s="4"/>
+      <c r="AT35" s="7">
+        <f t="shared" ref="AT35:AT38" si="21">AT28/AT$33</f>
         <v>0.46762589928057552</v>
       </c>
     </row>
@@ -10025,25 +12334,25 @@
       <c r="AM36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AN36" s="10">
-        <f t="shared" ref="AN36:AQ36" si="21">AN29/AN$33</f>
+      <c r="AN36" s="7">
+        <f t="shared" ref="AN36:AQ36" si="22">AN29/AN$33</f>
         <v>0.43</v>
       </c>
-      <c r="AO36" s="10">
+      <c r="AO36" s="7">
+        <f t="shared" si="22"/>
+        <v>0.55263157894736847</v>
+      </c>
+      <c r="AP36" s="4">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AQ36" s="4" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR36" s="4"/>
+      <c r="AT36" s="7">
         <f t="shared" si="21"/>
-        <v>0.55263157894736847</v>
-      </c>
-      <c r="AP36" s="7">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AQ36" s="7" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR36" s="7"/>
-      <c r="AT36" s="10">
-        <f t="shared" si="20"/>
         <v>0.46762589928057552</v>
       </c>
     </row>
@@ -10109,25 +12418,25 @@
       <c r="AM37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AN37" s="10">
-        <f t="shared" ref="AN37:AQ37" si="22">AN30/AN$33</f>
+      <c r="AN37" s="7">
+        <f t="shared" ref="AN37:AQ37" si="23">AN30/AN$33</f>
         <v>0.05</v>
       </c>
-      <c r="AO37" s="10">
-        <f t="shared" si="22"/>
+      <c r="AO37" s="7">
+        <f t="shared" si="23"/>
         <v>0.10526315789473684</v>
       </c>
-      <c r="AP37" s="7">
-        <f t="shared" si="22"/>
+      <c r="AP37" s="4">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AQ37" s="7" t="e">
-        <f t="shared" si="22"/>
+      <c r="AQ37" s="4" t="e">
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR37" s="7"/>
-      <c r="AT37" s="10">
-        <f t="shared" si="20"/>
+      <c r="AR37" s="4"/>
+      <c r="AT37" s="7">
+        <f t="shared" si="21"/>
         <v>6.4748201438848921E-2</v>
       </c>
     </row>
@@ -10193,25 +12502,25 @@
       <c r="AM38" t="s">
         <v>34</v>
       </c>
-      <c r="AN38" s="10">
-        <f t="shared" ref="AN38:AQ38" si="23">AN31/AN$33</f>
+      <c r="AN38" s="7">
+        <f t="shared" ref="AN38:AQ38" si="24">AN31/AN$33</f>
         <v>0</v>
       </c>
-      <c r="AO38" s="10">
-        <f t="shared" si="23"/>
+      <c r="AO38" s="7">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AP38" s="7">
-        <f t="shared" si="23"/>
+      <c r="AP38" s="4">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AQ38" s="7" t="e">
-        <f t="shared" si="23"/>
+      <c r="AQ38" s="4" t="e">
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR38" s="7"/>
-      <c r="AT38" s="10">
-        <f t="shared" si="20"/>
+      <c r="AR38" s="4"/>
+      <c r="AT38" s="7">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -10565,6 +12874,14 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="AM44" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN44" s="9"/>
+      <c r="AO44" s="9"/>
+      <c r="AP44" s="9"/>
+      <c r="AQ44" s="9"/>
+      <c r="AR44" s="9"/>
     </row>
     <row r="45" spans="1:53" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
@@ -10682,6 +12999,18 @@
         <f t="shared" si="0"/>
         <v>5-10% del prezzo del prodotto</v>
       </c>
+      <c r="AN46" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="47" spans="1:53" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
@@ -10742,6 +13071,25 @@
         <f t="shared" si="0"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
+      <c r="AM47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN47">
+        <f>COUNTIF(AC:AC,$AM47)</f>
+        <v>56</v>
+      </c>
+      <c r="AO47">
+        <f>COUNTIF(AD:AD,$AM47)</f>
+        <v>76</v>
+      </c>
+      <c r="AQ47" s="4">
+        <f>AN47/AN$51</f>
+        <v>0.28426395939086296</v>
+      </c>
+      <c r="AR47" s="4">
+        <f>AO47/AO$51</f>
+        <v>0.38578680203045684</v>
+      </c>
     </row>
     <row r="48" spans="1:53" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
@@ -10802,8 +13150,27 @@
         <f t="shared" si="0"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
+      <c r="AM48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN48">
+        <f>COUNTIF(AC:AC,$AM48)</f>
+        <v>44</v>
+      </c>
+      <c r="AO48">
+        <f>COUNTIF(AD:AD,$AM48)</f>
+        <v>42</v>
+      </c>
+      <c r="AQ48" s="4">
+        <f>AN48/AN$51</f>
+        <v>0.2233502538071066</v>
+      </c>
+      <c r="AR48" s="4">
+        <f>AO48/AO$51</f>
+        <v>0.21319796954314721</v>
+      </c>
     </row>
-    <row r="49" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>44878.760948738425</v>
       </c>
@@ -10862,8 +13229,27 @@
         <f t="shared" si="0"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
+      <c r="AM49" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN49">
+        <f>COUNTIF(AC:AC,$AM49)</f>
+        <v>81</v>
+      </c>
+      <c r="AO49">
+        <f>COUNTIF(AD:AD,$AM49)</f>
+        <v>77</v>
+      </c>
+      <c r="AQ49" s="4">
+        <f>AN49/AN$51</f>
+        <v>0.41116751269035534</v>
+      </c>
+      <c r="AR49" s="4">
+        <f>AO49/AO$51</f>
+        <v>0.39086294416243655</v>
+      </c>
     </row>
-    <row r="50" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>44878.76135630787</v>
       </c>
@@ -10922,8 +13308,27 @@
         <f t="shared" si="0"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
+      <c r="AM50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN50">
+        <f>COUNTIF(AC:AC,$AM50)</f>
+        <v>16</v>
+      </c>
+      <c r="AO50">
+        <f>COUNTIF(AD:AD,$AM50)</f>
+        <v>2</v>
+      </c>
+      <c r="AQ50" s="4">
+        <f>AN50/AN$51</f>
+        <v>8.1218274111675121E-2</v>
+      </c>
+      <c r="AR50" s="4">
+        <f>AO50/AO$51</f>
+        <v>1.015228426395939E-2</v>
+      </c>
     </row>
-    <row r="51" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>44878.761363356476</v>
       </c>
@@ -10982,8 +13387,19 @@
         <f t="shared" si="0"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
+      <c r="AM51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN51">
+        <f>SUM(AN47:AN50)</f>
+        <v>197</v>
+      </c>
+      <c r="AO51">
+        <f>SUM(AO47:AO50)</f>
+        <v>197</v>
+      </c>
     </row>
-    <row r="52" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>44878.76138708333</v>
       </c>
@@ -11040,7 +13456,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>44878.761844641209</v>
       </c>
@@ -11097,7 +13513,7 @@
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
-    <row r="54" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>44878.763384537036</v>
       </c>
@@ -11157,7 +13573,7 @@
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
-    <row r="55" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>44878.763516921295</v>
       </c>
@@ -11217,7 +13633,7 @@
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
-    <row r="56" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>44878.76394394676</v>
       </c>
@@ -11277,7 +13693,7 @@
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
-    <row r="57" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>44878.764258414347</v>
       </c>
@@ -11334,7 +13750,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>44878.764914328705</v>
       </c>
@@ -11391,7 +13807,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>44878.766207256944</v>
       </c>
@@ -11451,7 +13867,7 @@
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
-    <row r="60" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>44878.76677563657</v>
       </c>
@@ -11508,7 +13924,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>44878.76852888889</v>
       </c>
@@ -11562,7 +13978,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>44878.768780682869</v>
       </c>
@@ -11619,7 +14035,7 @@
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
-    <row r="63" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>44878.769117256947</v>
       </c>
@@ -11679,7 +14095,7 @@
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
-    <row r="64" spans="1:34" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:44" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>44878.771752893517</v>
       </c>
@@ -11957,7 +14373,7 @@
         <v>25</v>
       </c>
       <c r="AH68" t="str">
-        <f t="shared" ref="AH68:AH131" si="24">IF(AF68="Sì",AG68,"")</f>
+        <f t="shared" ref="AH68:AH131" si="25">IF(AF68="Sì",AG68,"")</f>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -12017,7 +14433,7 @@
         <v>16</v>
       </c>
       <c r="AH69" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
@@ -12074,7 +14490,7 @@
         <v>24</v>
       </c>
       <c r="AH70" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -12131,7 +14547,7 @@
         <v>25</v>
       </c>
       <c r="AH71" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -12191,7 +14607,7 @@
         <v>25</v>
       </c>
       <c r="AH72" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -12248,7 +14664,7 @@
         <v>24</v>
       </c>
       <c r="AH73" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -12302,7 +14718,7 @@
         <v>24</v>
       </c>
       <c r="AH74" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -12359,7 +14775,7 @@
         <v>16</v>
       </c>
       <c r="AH75" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
@@ -12419,7 +14835,7 @@
         <v>16</v>
       </c>
       <c r="AH76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
@@ -12476,7 +14892,7 @@
         <v>24</v>
       </c>
       <c r="AH77" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -12533,7 +14949,7 @@
         <v>25</v>
       </c>
       <c r="AH78" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -12593,7 +15009,7 @@
         <v>25</v>
       </c>
       <c r="AH79" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -12653,7 +15069,7 @@
         <v>16</v>
       </c>
       <c r="AH80" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
@@ -12713,7 +15129,7 @@
         <v>25</v>
       </c>
       <c r="AH81" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -12770,7 +15186,7 @@
         <v>24</v>
       </c>
       <c r="AH82" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -12827,7 +15243,7 @@
         <v>25</v>
       </c>
       <c r="AH83" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -12887,7 +15303,7 @@
         <v>16</v>
       </c>
       <c r="AH84" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
@@ -12944,7 +15360,7 @@
         <v>24</v>
       </c>
       <c r="AH85" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -13001,7 +15417,7 @@
         <v>25</v>
       </c>
       <c r="AH86" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -13061,7 +15477,7 @@
         <v>16</v>
       </c>
       <c r="AH87" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
@@ -13121,7 +15537,7 @@
         <v>25</v>
       </c>
       <c r="AH88" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -13178,7 +15594,7 @@
         <v>24</v>
       </c>
       <c r="AH89" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -13235,7 +15651,7 @@
         <v>25</v>
       </c>
       <c r="AH90" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -13295,7 +15711,7 @@
         <v>16</v>
       </c>
       <c r="AH91" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
@@ -13355,7 +15771,7 @@
         <v>25</v>
       </c>
       <c r="AH92" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -13415,7 +15831,7 @@
         <v>16</v>
       </c>
       <c r="AH93" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
@@ -13475,7 +15891,7 @@
         <v>16</v>
       </c>
       <c r="AH94" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
@@ -13535,7 +15951,7 @@
         <v>35</v>
       </c>
       <c r="AH95" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5-10% del prezzo del prodotto</v>
       </c>
     </row>
@@ -13592,7 +16008,7 @@
         <v>24</v>
       </c>
       <c r="AH96" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -13649,7 +16065,7 @@
         <v>16</v>
       </c>
       <c r="AH97" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
@@ -13709,7 +16125,7 @@
         <v>25</v>
       </c>
       <c r="AH98" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -13769,7 +16185,7 @@
         <v>25</v>
       </c>
       <c r="AH99" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -13826,7 +16242,7 @@
         <v>24</v>
       </c>
       <c r="AH100" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -13880,7 +16296,7 @@
         <v>24</v>
       </c>
       <c r="AH101" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -13937,7 +16353,7 @@
         <v>35</v>
       </c>
       <c r="AH102" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5-10% del prezzo del prodotto</v>
       </c>
     </row>
@@ -13997,7 +16413,7 @@
         <v>16</v>
       </c>
       <c r="AH103" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
@@ -14057,7 +16473,7 @@
         <v>25</v>
       </c>
       <c r="AH104" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -14114,7 +16530,7 @@
         <v>24</v>
       </c>
       <c r="AH105" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -14171,7 +16587,7 @@
         <v>35</v>
       </c>
       <c r="AH106" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5-10% del prezzo del prodotto</v>
       </c>
     </row>
@@ -14228,7 +16644,7 @@
         <v>24</v>
       </c>
       <c r="AH107" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -14282,7 +16698,7 @@
         <v>24</v>
       </c>
       <c r="AH108" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -14339,7 +16755,7 @@
         <v>25</v>
       </c>
       <c r="AH109" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -14399,7 +16815,7 @@
         <v>16</v>
       </c>
       <c r="AH110" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
@@ -14459,7 +16875,7 @@
         <v>16</v>
       </c>
       <c r="AH111" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
@@ -14516,7 +16932,7 @@
         <v>24</v>
       </c>
       <c r="AH112" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -14573,7 +16989,7 @@
         <v>16</v>
       </c>
       <c r="AH113" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
@@ -14630,7 +17046,7 @@
         <v>24</v>
       </c>
       <c r="AH114" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -14687,7 +17103,7 @@
         <v>16</v>
       </c>
       <c r="AH115" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
@@ -14744,7 +17160,7 @@
         <v>15</v>
       </c>
       <c r="AH116">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -14801,7 +17217,7 @@
         <v>25</v>
       </c>
       <c r="AH117" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -14858,7 +17274,7 @@
         <v>24</v>
       </c>
       <c r="AH118" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -14915,7 +17331,7 @@
         <v>16</v>
       </c>
       <c r="AH119" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
@@ -14975,7 +17391,7 @@
         <v>16</v>
       </c>
       <c r="AH120" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
@@ -15035,7 +17451,7 @@
         <v>25</v>
       </c>
       <c r="AH121" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -15092,7 +17508,7 @@
         <v>24</v>
       </c>
       <c r="AH122" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -15146,7 +17562,7 @@
         <v>24</v>
       </c>
       <c r="AH123" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -15203,7 +17619,7 @@
         <v>16</v>
       </c>
       <c r="AH124" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
@@ -15263,7 +17679,7 @@
         <v>16</v>
       </c>
       <c r="AH125" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
@@ -15323,7 +17739,7 @@
         <v>16</v>
       </c>
       <c r="AH126" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
@@ -15383,7 +17799,7 @@
         <v>25</v>
       </c>
       <c r="AH127" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -15440,7 +17856,7 @@
         <v>24</v>
       </c>
       <c r="AH128" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -15494,7 +17910,7 @@
         <v>24</v>
       </c>
       <c r="AH129" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -15551,7 +17967,7 @@
         <v>16</v>
       </c>
       <c r="AH130" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
@@ -15611,7 +18027,7 @@
         <v>16</v>
       </c>
       <c r="AH131" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
@@ -15671,7 +18087,7 @@
         <v>35</v>
       </c>
       <c r="AH132" t="str">
-        <f t="shared" ref="AH132:AH195" si="25">IF(AF132="Sì",AG132,"")</f>
+        <f t="shared" ref="AH132:AH195" si="26">IF(AF132="Sì",AG132,"")</f>
         <v>5-10% del prezzo del prodotto</v>
       </c>
     </row>
@@ -15731,7 +18147,7 @@
         <v>25</v>
       </c>
       <c r="AH133" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -15788,7 +18204,7 @@
         <v>24</v>
       </c>
       <c r="AH134" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -15842,7 +18258,7 @@
         <v>24</v>
       </c>
       <c r="AH135" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -15899,7 +18315,7 @@
         <v>16</v>
       </c>
       <c r="AH136" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
@@ -15959,7 +18375,7 @@
         <v>25</v>
       </c>
       <c r="AH137" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -16019,7 +18435,7 @@
         <v>25</v>
       </c>
       <c r="AH138" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -16079,7 +18495,7 @@
         <v>25</v>
       </c>
       <c r="AH139" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -16136,7 +18552,7 @@
         <v>24</v>
       </c>
       <c r="AH140" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -16193,7 +18609,7 @@
         <v>25</v>
       </c>
       <c r="AH141" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -16253,7 +18669,7 @@
         <v>16</v>
       </c>
       <c r="AH142" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
@@ -16310,7 +18726,7 @@
         <v>24</v>
       </c>
       <c r="AH143" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -16367,7 +18783,7 @@
         <v>25</v>
       </c>
       <c r="AH144" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -16427,7 +18843,7 @@
         <v>16</v>
       </c>
       <c r="AH145" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
@@ -16484,7 +18900,7 @@
         <v>24</v>
       </c>
       <c r="AH146" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -16541,7 +18957,7 @@
         <v>25</v>
       </c>
       <c r="AH147" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -16601,7 +19017,7 @@
         <v>25</v>
       </c>
       <c r="AH148" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -16661,7 +19077,7 @@
         <v>25</v>
       </c>
       <c r="AH149" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -16721,7 +19137,7 @@
         <v>25</v>
       </c>
       <c r="AH150" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -16778,7 +19194,7 @@
         <v>24</v>
       </c>
       <c r="AH151" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -16832,7 +19248,7 @@
         <v>24</v>
       </c>
       <c r="AH152" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -16889,7 +19305,7 @@
         <v>16</v>
       </c>
       <c r="AH153" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
@@ -16949,7 +19365,7 @@
         <v>35</v>
       </c>
       <c r="AH154" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5-10% del prezzo del prodotto</v>
       </c>
     </row>
@@ -17009,7 +19425,7 @@
         <v>25</v>
       </c>
       <c r="AH155" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -17069,7 +19485,7 @@
         <v>16</v>
       </c>
       <c r="AH156" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
@@ -17129,7 +19545,7 @@
         <v>16</v>
       </c>
       <c r="AH157" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
@@ -17189,7 +19605,7 @@
         <v>25</v>
       </c>
       <c r="AH158" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -17249,7 +19665,7 @@
         <v>25</v>
       </c>
       <c r="AH159" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -17309,7 +19725,7 @@
         <v>25</v>
       </c>
       <c r="AH160" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -17366,7 +19782,7 @@
         <v>24</v>
       </c>
       <c r="AH161" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -17423,7 +19839,7 @@
         <v>16</v>
       </c>
       <c r="AH162" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
@@ -17483,7 +19899,7 @@
         <v>16</v>
       </c>
       <c r="AH163" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
@@ -17543,7 +19959,7 @@
         <v>25</v>
       </c>
       <c r="AH164" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -17603,7 +20019,7 @@
         <v>16</v>
       </c>
       <c r="AH165" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
@@ -17660,7 +20076,7 @@
         <v>24</v>
       </c>
       <c r="AH166" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -17717,7 +20133,7 @@
         <v>16</v>
       </c>
       <c r="AH167" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
@@ -17777,7 +20193,7 @@
         <v>25</v>
       </c>
       <c r="AH168" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -17837,7 +20253,7 @@
         <v>25</v>
       </c>
       <c r="AH169" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -17897,7 +20313,7 @@
         <v>25</v>
       </c>
       <c r="AH170" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -17957,7 +20373,7 @@
         <v>25</v>
       </c>
       <c r="AH171" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -18017,7 +20433,7 @@
         <v>34</v>
       </c>
       <c r="AH172" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -18074,7 +20490,7 @@
         <v>24</v>
       </c>
       <c r="AH173" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -18131,7 +20547,7 @@
         <v>25</v>
       </c>
       <c r="AH174" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -18191,7 +20607,7 @@
         <v>25</v>
       </c>
       <c r="AH175" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -18251,7 +20667,7 @@
         <v>25</v>
       </c>
       <c r="AH176" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -18308,7 +20724,7 @@
         <v>24</v>
       </c>
       <c r="AH177" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -18362,7 +20778,7 @@
         <v>24</v>
       </c>
       <c r="AH178" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -18416,7 +20832,7 @@
         <v>24</v>
       </c>
       <c r="AH179" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -18473,7 +20889,7 @@
         <v>25</v>
       </c>
       <c r="AH180" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -18530,7 +20946,7 @@
         <v>24</v>
       </c>
       <c r="AH181" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -18584,7 +21000,7 @@
         <v>24</v>
       </c>
       <c r="AH182" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -18641,7 +21057,7 @@
         <v>16</v>
       </c>
       <c r="AH183" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
@@ -18698,7 +21114,7 @@
         <v>24</v>
       </c>
       <c r="AH184" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -18755,7 +21171,7 @@
         <v>16</v>
       </c>
       <c r="AH185" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
@@ -18815,7 +21231,7 @@
         <v>25</v>
       </c>
       <c r="AH186" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -18875,7 +21291,7 @@
         <v>16</v>
       </c>
       <c r="AH187" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
@@ -18932,7 +21348,7 @@
         <v>24</v>
       </c>
       <c r="AH188" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -18989,7 +21405,7 @@
         <v>16</v>
       </c>
       <c r="AH189" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
@@ -19046,7 +21462,7 @@
         <v>24</v>
       </c>
       <c r="AH190" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -19103,7 +21519,7 @@
         <v>25</v>
       </c>
       <c r="AH191" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -19163,7 +21579,7 @@
         <v>16</v>
       </c>
       <c r="AH192" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
@@ -19223,7 +21639,7 @@
         <v>16</v>
       </c>
       <c r="AH193" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
@@ -19283,7 +21699,7 @@
         <v>25</v>
       </c>
       <c r="AH194" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -19340,7 +21756,7 @@
         <v>24</v>
       </c>
       <c r="AH195" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -19397,7 +21813,7 @@
         <v>25</v>
       </c>
       <c r="AH196" t="str">
-        <f t="shared" ref="AH196:AH204" si="26">IF(AF196="Sì",AG196,"")</f>
+        <f t="shared" ref="AH196:AH204" si="27">IF(AF196="Sì",AG196,"")</f>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -19457,7 +21873,7 @@
         <v>16</v>
       </c>
       <c r="AH197" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
@@ -19517,7 +21933,7 @@
         <v>25</v>
       </c>
       <c r="AH198" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Meno del 2% del prezzo del prodotto</v>
       </c>
     </row>
@@ -19574,7 +21990,7 @@
         <v>24</v>
       </c>
       <c r="AH199" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -19631,7 +22047,7 @@
         <v>16</v>
       </c>
       <c r="AH200" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2-5% del prezzo del prodotto</v>
       </c>
     </row>
@@ -19664,25 +22080,25 @@
         <v>16</v>
       </c>
       <c r="AH201" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="202" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH202" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="203" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH203" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="204" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH204" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -19751,7 +22167,8 @@
       <c r="V216" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="AM44:AR44"/>
     <mergeCell ref="AW4:BT4"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="AN4:AR4"/>
